--- a/StructureDefinition-ext-R5-ElementDefinition.binding.xlsx
+++ b/StructureDefinition-ext-R5-ElementDefinition.binding.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="233">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,15 +413,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indication of the degree of conformance expectations associated with a binding.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-binding-strength-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -498,7 +489,7 @@
     <t>Extension.extension:valueSet.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|0.0.1-snapshot-3|ValueSet|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|ValueSet)
 </t>
   </si>
   <si>
@@ -1107,8 +1098,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.7578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2030,43 +2021,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>122</v>
@@ -2074,13 +2065,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2105,14 +2096,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2181,7 +2172,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2284,7 +2275,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2389,7 +2380,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2432,7 +2423,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2494,7 +2485,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>124</v>
@@ -2520,13 +2511,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2577,7 +2568,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2589,7 +2580,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>122</v>
@@ -2597,13 +2588,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2628,16 +2619,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2706,7 +2697,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2809,7 +2800,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2914,7 +2905,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2957,7 +2948,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3019,7 +3010,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>124</v>
@@ -3045,16 +3036,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3104,7 +3095,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3116,7 +3107,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>122</v>
@@ -3124,13 +3115,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3155,14 +3146,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3231,7 +3222,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3334,7 +3325,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3345,7 +3336,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>84</v>
@@ -3437,13 +3428,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3468,16 +3459,16 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3546,10 +3537,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3649,10 +3640,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3754,10 +3745,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3797,7 +3788,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3859,10 +3850,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3888,13 +3879,13 @@
         <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3944,7 +3935,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3956,7 +3947,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>122</v>
@@ -3964,13 +3955,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3995,14 +3986,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4071,10 +4062,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4174,10 +4165,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4279,10 +4270,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4322,7 +4313,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4384,10 +4375,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4410,13 +4401,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4467,7 +4458,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4479,7 +4470,7 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>122</v>
@@ -4487,13 +4478,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4518,14 +4509,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4594,10 +4585,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4697,10 +4688,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4802,10 +4793,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4845,7 +4836,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -4907,10 +4898,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4933,13 +4924,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4990,7 +4981,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5002,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>122</v>
@@ -5010,13 +5001,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5041,14 +5032,14 @@
         <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5117,10 +5108,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5220,10 +5211,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5325,10 +5316,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5368,7 +5359,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5430,10 +5421,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5459,10 +5450,10 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5513,7 +5504,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5525,7 +5516,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>122</v>
@@ -5533,13 +5524,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5564,16 +5555,16 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5642,10 +5633,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5745,10 +5736,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5850,10 +5841,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5893,7 +5884,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5955,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5981,16 +5972,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6040,7 +6031,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6052,7 +6043,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>122</v>
@@ -6060,13 +6051,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6091,16 +6082,16 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6169,10 +6160,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6272,10 +6263,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6377,10 +6368,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6420,7 +6411,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6482,10 +6473,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6508,16 +6499,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6567,7 +6558,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6579,7 +6570,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>122</v>
@@ -6587,7 +6578,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -6630,7 +6621,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6692,7 +6683,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>124</v>
@@ -6718,13 +6709,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6775,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6787,7 +6778,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>122</v>
@@ -6900,10 +6891,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6926,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6983,7 +6974,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -6995,7 +6986,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>122</v>
